--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="3600" windowHeight="6825"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="3600" windowHeight="6825" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Auftrieb" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Rand</t>
   </si>
@@ -196,10 +196,16 @@
     <t>Kosten</t>
   </si>
   <si>
-    <t>http://www.ebay.de/itm/Spanplattenschrauben-mit-Bohrspitze-incl-Bit-Torx-Edelstahl-Holzschrauben-VA-V2A-/221043414047?var=&amp;hash=item337736d41f:m:mvF9pRU_MNzglgGH-G2s2XA</t>
-  </si>
-  <si>
     <t>Holzschrauben 30mm</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/Edelstahl-V2A-Holzschrauben-Spanplattenschrauben-3-6-mm-Teilgewinde-VA-A2-TORX-/281926072470?var=&amp;hash=item41a41a7896:m:myuA4AWkxdXTOZixwf3HyTQ</t>
+  </si>
+  <si>
+    <t>Holzschrauben 100mm</t>
+  </si>
+  <si>
+    <t>Holzschrauben 150mm</t>
   </si>
 </sst>
 </file>
@@ -567,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -678,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,7 +806,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -809,92 +815,102 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>36</v>
+      <c r="B16" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>60</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18">
-        <v>15</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
+      <c r="A18" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D19">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>16</v>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="C21">
+      <c r="C23">
         <f>349+109</f>
         <v>458</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>17</v>
       </c>
-      <c r="C23">
+      <c r="C25">
         <v>144</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -956,8 +972,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E23" r:id="rId1"/>
-    <hyperlink ref="E21" r:id="rId2"/>
+    <hyperlink ref="E25" r:id="rId1"/>
+    <hyperlink ref="E23" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId3"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="3600" windowHeight="6825" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="3600" windowHeight="6015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Auftrieb" sheetId="2" r:id="rId1"/>
     <sheet name="BOM" sheetId="3" r:id="rId2"/>
+    <sheet name="TEG" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>Rand</t>
   </si>
@@ -206,13 +207,71 @@
   </si>
   <si>
     <t>Holzschrauben 150mm</t>
+  </si>
+  <si>
+    <t>Wärmeleitfähigkeit TEG</t>
+  </si>
+  <si>
+    <t>Anteil Fläche TEG</t>
+  </si>
+  <si>
+    <t>Leistung Ofen</t>
+  </si>
+  <si>
+    <t>W/K</t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>Wärmeleitfähigkeit Stahl</t>
+  </si>
+  <si>
+    <t>Fläche Ofen</t>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>²</t>
+    </r>
+  </si>
+  <si>
+    <t>Wärmestrom</t>
+  </si>
+  <si>
+    <t>Temperatur Seewasser</t>
+  </si>
+  <si>
+    <t>Temperatur Hot Tub</t>
+  </si>
+  <si>
+    <t>Temperatur Ofenwand</t>
+  </si>
+  <si>
+    <t>Stahlwanddicke</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>W/(K m)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +296,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -684,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,7 +782,7 @@
       <c r="D3">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -729,7 +796,7 @@
       <c r="D4">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -974,8 +1041,129 @@
   <hyperlinks>
     <hyperlink ref="E25" r:id="rId1"/>
     <hyperlink ref="E23" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="E4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1">
+        <v>2E-3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3">
+        <v>1136</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8">
+        <f>2*0.7*0.7+2*0.7*0.3+0.7*0.3</f>
+        <v>1.6099999999999999</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14">
+        <f>C8*C2*(C12-C11)/C1 /1000</f>
+        <v>36.224999999999994</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="102">
   <si>
     <t>Rand</t>
   </si>
@@ -95,9 +95,6 @@
     <t>PE Rohre</t>
   </si>
   <si>
-    <t>http://www.ebay.de/itm/2K-Montageschaum-1-48-Stuck-400-ml-Bauschaum-Zargenschaum-PU-Schaum-IRTEX-/252270857112?var=&amp;hash=item3abc83cb98:m:mmVUfwSe8c4oq2oiaFulBYg</t>
-  </si>
-  <si>
     <t>Füllung</t>
   </si>
   <si>
@@ -137,18 +134,9 @@
     <t>http://www.ebay.de/itm/Rahmenholz-Fichte-saegerau-80x100mm-2-00m-Holz-Kantholz-Holzbalken-Bauholz-Zaun-/291431702217?hash=item43daaedec9:g:UYQAAOSwEeFVK8Ol</t>
   </si>
   <si>
-    <t>Kantholz 80x100</t>
-  </si>
-  <si>
     <t>http://www.ebay.de/itm/Rahmenholz-Fichte-18x200mm-2-00m-Holz-Kantholz-Bretter-Bauholz-KVH-Zaun-/301587853300?hash=item4638096ff4:g:ogAAAOSwEeFVJTdw</t>
   </si>
   <si>
-    <t>Brett 200x18</t>
-  </si>
-  <si>
-    <t>Brett 120x18</t>
-  </si>
-  <si>
     <t>http://www.ebay.de/itm/Rahmenholz-Fichte-18x120mm-2-00m-Holz-Kantholz-Bretter-Bauholz-KVH-Zaunlatten-/291427044894?hash=item43da67ce1e:g:dIIAAOSwymxVJTTB</t>
   </si>
   <si>
@@ -179,12 +167,6 @@
     <t>Luftpolsterkissen</t>
   </si>
   <si>
-    <t>https://www.amazon.de/Wilckens-Boots-Yachtlack-farblos-11500000030/dp/B001CG6TMY/ref=sr_1_1?ie=UTF8&amp;qid=1496758863&amp;sr=8-1&amp;keywords=holz+wasserfest</t>
-  </si>
-  <si>
-    <t>Bootslack</t>
-  </si>
-  <si>
     <t>http://www.ebay.de/itm/800x-Luftpolsterkissen-200x100x4-Luftpolster-Fullmaterial-Luftpolsterfolie-/122387531708?hash=item1c7edd87bc:g:MXEAAOSwWxNYv6ua</t>
   </si>
   <si>
@@ -198,9 +180,6 @@
   </si>
   <si>
     <t>Holzschrauben 30mm</t>
-  </si>
-  <si>
-    <t>http://www.ebay.de/itm/Edelstahl-V2A-Holzschrauben-Spanplattenschrauben-3-6-mm-Teilgewinde-VA-A2-TORX-/281926072470?var=&amp;hash=item41a41a7896:m:myuA4AWkxdXTOZixwf3HyTQ</t>
   </si>
   <si>
     <t>Holzschrauben 100mm</t>
@@ -265,6 +244,132 @@
   </si>
   <si>
     <t>W/(K m)</t>
+  </si>
+  <si>
+    <t>Boden</t>
+  </si>
+  <si>
+    <t>Schrauben pro Brett</t>
+  </si>
+  <si>
+    <t>Außenwände</t>
+  </si>
+  <si>
+    <t>Innenwände</t>
+  </si>
+  <si>
+    <t>Kantholz 60x100x1100</t>
+  </si>
+  <si>
+    <t>Brett 120x18x2000</t>
+  </si>
+  <si>
+    <t>Brett 120x18x1764</t>
+  </si>
+  <si>
+    <t>Brett 200x18x2170</t>
+  </si>
+  <si>
+    <t>Kantholz 60x100x2000</t>
+  </si>
+  <si>
+    <t>Bockrollen</t>
+  </si>
+  <si>
+    <t>Schrauben pro Rolle</t>
+  </si>
+  <si>
+    <t>Epoxidharz</t>
+  </si>
+  <si>
+    <t>Ringmutter</t>
+  </si>
+  <si>
+    <t>Stockschrauben</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/V2A-Ringmutter-Edelstahl-Ringmuttern-Augmutter-VA-Augenmuttern-A2-Ose-Zurrose-/272129725315?var=&amp;hash=item3f5c321383:m:m6b-4fB4XQ2t0JZUTkH-8_A</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/V2A-Spanplattenschrauben-Torx-Edelstahl-Schraube-Schrauben-VA-Holzschrauben-A2-/271973389598?var=&amp;hash=item3f52e0951e:m:m7Qpnd22EAZgQL9XCLp8SlA</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/V2A-Stockschrauben-mit-Schlusselflache-Edelstahl-VA-Stockschraube-A2-/271983071611?var=&amp;hash=item3f5374517b:m:mL1_tcvb-l8ZzhdiL77XH0Q</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/V2A-DIN-934-Muttern-Sechskantmuttern-Edelstahl-DIN934-VA-Mutter-A2-Sechskant-/271966294506?var=&amp;hash=item3f527451ea:m:mbud7IjqC8p3pd3dXBPODRw</t>
+  </si>
+  <si>
+    <t>Mutter</t>
+  </si>
+  <si>
+    <t>M10 50 Stück</t>
+  </si>
+  <si>
+    <t>M10 5 Stück</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/Wilckens-Epoxid-Primer-grau-2400ml-Korrosionsschutzanstrich-fur-Yacht-Boot-/162004009161?hash=item25b83100c9:g:P7QAAOSwaeRZKRq4</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/38-60-1l-Wilckens-Yacht-Antifouling-750ml-Boots-Farbe-Bewuchsschutz-/161006934813?var=&amp;hash=item257cc2db1d:m:mjH-Of_jNgwnU6yuI5ENHNg</t>
+  </si>
+  <si>
+    <t>Anti-fouling (7m²)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoxy Primer </t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/Zweikomponentiger-schnell-hartender-2K-Zargenschaum-400-ml-/112404558040?var=&amp;hash=item1a2bd570d8:m:m8qA5TjEXf3BMbBzNdjls5Q</t>
+  </si>
+  <si>
+    <t>Fläche</t>
+  </si>
+  <si>
+    <t>Schichtdicke</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Liter Epoxy</t>
+  </si>
+  <si>
+    <t>m²</t>
+  </si>
+  <si>
+    <t>Seitenfächer</t>
+  </si>
+  <si>
+    <t>2000er Bretter</t>
+  </si>
+  <si>
+    <t>1764er Bretter</t>
+  </si>
+  <si>
+    <t>258er Bretter</t>
+  </si>
+  <si>
+    <t>240er Kantholz</t>
+  </si>
+  <si>
+    <t>142er Kantholz</t>
+  </si>
+  <si>
+    <t>2000er Kanthölzer</t>
+  </si>
+  <si>
+    <t>1100er Kanthölzer</t>
+  </si>
+  <si>
+    <t>Brett 120x18x258</t>
+  </si>
+  <si>
+    <t>Kantholz 40x40x142</t>
+  </si>
+  <si>
+    <t>Kantholz 40x40x240</t>
   </si>
 </sst>
 </file>
@@ -330,9 +435,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -749,16 +855,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E33"/>
+  <dimension ref="A2:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -766,286 +874,631 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>11.2</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <f>C54*C50+C56*C61</f>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4">
-        <v>8.66</v>
+        <v>68</v>
       </c>
       <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
+        <f>C48</f>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C5">
+        <v>8.66</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6">
         <v>3.98</v>
       </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
+      <c r="D6">
+        <f>C44*C45+C50*C51+C56*C57/2+C66*C67</f>
+        <v>88</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>35</v>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7">
+        <f>C58*C56+C66*C68</f>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8">
-        <v>6.81</v>
+        <v>99</v>
       </c>
       <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
+        <f>C69*C66</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9">
+        <f>C66*C70</f>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <f>C66*C71</f>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11">
-        <v>4.7</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
+      <c r="A11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="C12">
-        <v>21.99</v>
+        <v>56.95</v>
       </c>
       <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13">
+        <v>28.95</v>
+      </c>
+      <c r="D13">
         <v>2</v>
       </c>
-      <c r="E12" t="s">
-        <v>44</v>
+      <c r="E13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>49</v>
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>51</v>
+        <v>37</v>
+      </c>
+      <c r="C16">
+        <v>21.99</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C19">
-        <v>60</v>
+        <v>1.19</v>
       </c>
       <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>39</v>
+        <v>4</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20">
-        <v>15</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>50</v>
-      </c>
-      <c r="E21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C23">
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
         <f>349+109</f>
         <v>458</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25">
-        <v>144</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27">
-        <v>5</v>
-      </c>
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" t="s">
-        <v>21</v>
+      <c r="E27" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>21</v>
+      <c r="A28" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C33">
-        <f>SUMPRODUCT(C3:C29,D3:D29)</f>
-        <v>1825.87</v>
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35">
+        <v>6.31</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36">
+        <v>2.92</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38">
+        <v>1.9</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40">
+        <f>SUMPRODUCT(C3:C39,D3:D39)</f>
+        <v>1886.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45">
+        <v>34</v>
+      </c>
+      <c r="G45" t="s">
+        <v>86</v>
+      </c>
+      <c r="H45">
+        <f>2*4+4</f>
+        <v>12</v>
+      </c>
+      <c r="I45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>87</v>
+      </c>
+      <c r="H46">
+        <v>0.2</v>
+      </c>
+      <c r="I46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <f>C44*C45*C46</f>
+        <v>68</v>
+      </c>
+      <c r="G47" t="s">
+        <v>89</v>
+      </c>
+      <c r="H47">
+        <f>H45*H46</f>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <f>C50*C51*C52</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60">
+        <f>C56*(C57+C58)*C59</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E25" r:id="rId1"/>
-    <hyperlink ref="E23" r:id="rId2"/>
+    <hyperlink ref="E29" r:id="rId1"/>
+    <hyperlink ref="E27" r:id="rId2"/>
     <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E38" r:id="rId6"/>
+    <hyperlink ref="E12" r:id="rId7"/>
+    <hyperlink ref="E16" r:id="rId8"/>
+    <hyperlink ref="E31" r:id="rId9"/>
+    <hyperlink ref="E32" r:id="rId10"/>
+    <hyperlink ref="E33" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <legacyDrawing r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -1064,40 +1517,40 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C1">
         <v>2E-3</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>1136</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1105,30 +1558,30 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <f>2*0.7*0.7+2*0.7*0.3+0.7*0.3</f>
         <v>1.6099999999999999</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -1136,7 +1589,7 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>38</v>
@@ -1144,7 +1597,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C12">
         <v>39</v>
@@ -1152,14 +1605,14 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C14">
         <f>C8*C2*(C12-C11)/C1 /1000</f>
         <v>36.224999999999994</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -46,12 +46,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="O50" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+nachfragen ob es 60x100 gibt (sägerau)
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="112">
   <si>
     <t>Rand</t>
   </si>
@@ -370,6 +395,36 @@
   </si>
   <si>
     <t>Kantholz 40x40x240</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/Rahmenholz-Fichte-saegerau-40x60mm-2-00m-Holz-Kantholz-Holzbalken-Bauholz-Latten-/291431680501?hash=item43daae89f5:g:hmEAAOSwEeFVK7vD</t>
+  </si>
+  <si>
+    <t>Versandkosten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preis  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menge  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Link</t>
+  </si>
+  <si>
+    <t>Summe</t>
+  </si>
+  <si>
+    <t>http://www.metall-kunststoffhandel.de/produkt/aluminium-blech-1mm-alublech/</t>
+  </si>
+  <si>
+    <t>DD Hartlack</t>
+  </si>
+  <si>
+    <t>Schwimmbeckenbeschichtung</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/Wilckens-Schwimmbecken-Beschichtung-2-5-L-Poolblau-seidenglaenzend-/222538997764?_trksid=p2385738.m2548.l4275</t>
   </si>
 </sst>
 </file>
@@ -855,16 +910,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I71"/>
+  <dimension ref="A2:R73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="35" bestFit="1" customWidth="1"/>
   </cols>
@@ -888,7 +943,7 @@
         <v>11.2</v>
       </c>
       <c r="D3">
-        <f>C54*C50+C56*C61</f>
+        <f>C56*C52+C58*C63</f>
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -899,9 +954,15 @@
       <c r="B4" t="s">
         <v>68</v>
       </c>
+      <c r="C4">
+        <v>11.2</v>
+      </c>
       <c r="D4">
-        <f>C48</f>
+        <f>C50</f>
         <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -926,7 +987,7 @@
         <v>3.98</v>
       </c>
       <c r="D6">
-        <f>C44*C45+C50*C51+C56*C57/2+C66*C67</f>
+        <f>C46*C47+C52*C53+C58*C59/2+C68*C69</f>
         <v>88</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -937,8 +998,14 @@
       <c r="B7" t="s">
         <v>66</v>
       </c>
+      <c r="C7">
+        <v>3.98</v>
+      </c>
       <c r="D7">
-        <f>C58*C56+C66*C68</f>
+        <f>C60*C58+C68*C70</f>
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -946,27 +1013,46 @@
       <c r="B8" t="s">
         <v>99</v>
       </c>
+      <c r="C8">
+        <v>3.98</v>
+      </c>
       <c r="D8">
-        <f>C69*C66</f>
         <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>101</v>
       </c>
+      <c r="C9">
+        <f>5.84/8</f>
+        <v>0.73</v>
+      </c>
       <c r="D9">
-        <f>C66*C70</f>
+        <f>C68*C72</f>
         <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>100</v>
       </c>
+      <c r="C10">
+        <f>5.84/12</f>
+        <v>0.48666666666666664</v>
+      </c>
       <c r="D10">
-        <f>C66*C71</f>
+        <f>C68*C73</f>
         <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -982,7 +1068,7 @@
         <v>56.95</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>81</v>
@@ -996,199 +1082,192 @@
         <v>28.95</v>
       </c>
       <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15">
+        <v>26.95</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>5.5</v>
       </c>
-      <c r="D15">
+      <c r="D17">
         <v>8</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>21.99</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <v>2</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19">
-        <v>1.19</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="C21">
+        <v>1.19</v>
+      </c>
+      <c r="D21">
+        <f>(C49+C55+C65*C66)/100</f>
+        <v>1.64</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>32</v>
+      <c r="B22" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23">
-        <v>60</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24">
-        <v>15</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>34</v>
+      <c r="A24" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D25">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26">
         <v>15</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="C27">
+      <c r="C29">
         <f>349+109</f>
         <v>458</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29">
-        <v>144</v>
-      </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>20</v>
+      <c r="A32" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1197,308 +1276,465 @@
         <v>20</v>
       </c>
     </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>72</v>
-      </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="C35">
-        <v>6.31</v>
+        <v>3</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37">
+        <v>6.31</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36">
-        <v>2.92</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38">
+        <v>2.92</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>73</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>80</v>
       </c>
-      <c r="C38">
+      <c r="C40">
         <v>1.9</v>
       </c>
-      <c r="D38">
+      <c r="D40">
         <v>4</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>41</v>
       </c>
-      <c r="C40">
-        <f>SUMPRODUCT(C3:C39,D3:D39)</f>
-        <v>1886.9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="C42">
+        <f>SUMPRODUCT(C3:C41,D3:D41)</f>
+        <v>2001.5716</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>60</v>
       </c>
-      <c r="C44">
+      <c r="C46">
         <v>1</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G46" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>92</v>
       </c>
-      <c r="C45">
+      <c r="C47">
         <v>34</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G47" t="s">
         <v>86</v>
       </c>
-      <c r="H45">
+      <c r="H47">
         <f>2*4+4</f>
         <v>12</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I47" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="G46" t="s">
-        <v>87</v>
-      </c>
-      <c r="H46">
-        <v>0.2</v>
-      </c>
-      <c r="I46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47">
-        <f>C44*C45*C46</f>
-        <v>68</v>
-      </c>
-      <c r="G47" t="s">
-        <v>89</v>
-      </c>
-      <c r="H47">
-        <f>H45*H46</f>
-        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="G48" t="s">
+        <v>87</v>
+      </c>
+      <c r="H48">
+        <v>0.2</v>
+      </c>
+      <c r="I48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <f>C46*C47*C48</f>
+        <v>68</v>
+      </c>
+      <c r="G49" t="s">
+        <v>89</v>
+      </c>
+      <c r="H49">
+        <f>H47*H48</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="P49" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>105</v>
+      </c>
+      <c r="R49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>97</v>
       </c>
-      <c r="C48">
+      <c r="C50">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="O50" t="s">
+        <v>64</v>
+      </c>
+      <c r="P50">
+        <v>11.2</v>
+      </c>
+      <c r="Q50">
+        <v>8</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O51" t="s">
+        <v>68</v>
+      </c>
+      <c r="P51">
+        <v>11.2</v>
+      </c>
+      <c r="Q51">
+        <v>3</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>62</v>
       </c>
-      <c r="C50">
+      <c r="C52">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+      <c r="O52" t="s">
+        <v>65</v>
+      </c>
+      <c r="P52">
+        <v>3.98</v>
+      </c>
+      <c r="Q52">
         <v>92</v>
       </c>
-      <c r="C51">
+      <c r="R52" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+      <c r="O53" t="s">
+        <v>66</v>
+      </c>
+      <c r="P53">
+        <v>3.98</v>
+      </c>
+      <c r="Q53">
+        <v>28</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>61</v>
       </c>
-      <c r="C52">
+      <c r="C54">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+      <c r="O54" t="s">
+        <v>99</v>
+      </c>
+      <c r="P54">
+        <v>3.98</v>
+      </c>
+      <c r="Q54">
+        <v>2</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>12</v>
       </c>
-      <c r="C53">
-        <f>C50*C51*C52</f>
+      <c r="C55">
+        <f>C52*C53*C54</f>
         <v>80</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+      <c r="O55" t="s">
+        <v>101</v>
+      </c>
+      <c r="P55">
+        <v>5.84</v>
+      </c>
+      <c r="Q55">
+        <v>3</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>98</v>
       </c>
-      <c r="C54">
+      <c r="C56">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="O56" t="s">
+        <v>100</v>
+      </c>
+      <c r="P56">
+        <v>5.84</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O57" t="s">
+        <v>103</v>
+      </c>
+      <c r="P57">
+        <v>14.9</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56">
+      <c r="B58" s="2"/>
+      <c r="C58">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+      <c r="O58" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q58">
+        <f>SUMPRODUCT(P50:P57,Q50:Q57)</f>
+        <v>647.02</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>92</v>
       </c>
-      <c r="C57">
+      <c r="C59">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>93</v>
       </c>
-      <c r="C58">
+      <c r="C60">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>61</v>
       </c>
-      <c r="C59">
+      <c r="C61">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>12</v>
       </c>
-      <c r="C60">
-        <f>C56*(C57+C58)*C59</f>
+      <c r="C62">
+        <f>C58*(C59+C60)*C61</f>
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>98</v>
       </c>
-      <c r="C61">
+      <c r="C63">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>69</v>
       </c>
-      <c r="C63">
+      <c r="C65">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>70</v>
       </c>
-      <c r="C64">
+      <c r="C66">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>91</v>
       </c>
-      <c r="C66">
+      <c r="C68">
         <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>92</v>
-      </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>93</v>
-      </c>
-      <c r="C68">
-        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C70">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>96</v>
       </c>
-      <c r="C71">
+      <c r="C73">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E29" r:id="rId1"/>
-    <hyperlink ref="E27" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E38" r:id="rId6"/>
-    <hyperlink ref="E12" r:id="rId7"/>
-    <hyperlink ref="E16" r:id="rId8"/>
-    <hyperlink ref="E31" r:id="rId9"/>
-    <hyperlink ref="E32" r:id="rId10"/>
-    <hyperlink ref="E33" r:id="rId11"/>
+    <hyperlink ref="E31" r:id="rId1"/>
+    <hyperlink ref="E29" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="E40" r:id="rId5"/>
+    <hyperlink ref="E12" r:id="rId6"/>
+    <hyperlink ref="E18" r:id="rId7"/>
+    <hyperlink ref="E33" r:id="rId8"/>
+    <hyperlink ref="E34" r:id="rId9"/>
+    <hyperlink ref="E35" r:id="rId10"/>
+    <hyperlink ref="E13" r:id="rId11"/>
+    <hyperlink ref="E7" r:id="rId12"/>
+    <hyperlink ref="E8" r:id="rId13"/>
+    <hyperlink ref="R52" r:id="rId14"/>
+    <hyperlink ref="R53" r:id="rId15"/>
+    <hyperlink ref="R54" r:id="rId16"/>
+    <hyperlink ref="R51" r:id="rId17"/>
+    <hyperlink ref="R55" r:id="rId18"/>
+    <hyperlink ref="R56" r:id="rId19"/>
+    <hyperlink ref="R50" r:id="rId20"/>
+    <hyperlink ref="E17" r:id="rId21"/>
+    <hyperlink ref="E15" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
-  <legacyDrawing r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <legacyDrawing r:id="rId24"/>
 </worksheet>
 </file>
 
